--- a/Refined Program/picker_outputs_rep3/options_rep3.xlsx
+++ b/Refined Program/picker_outputs_rep3/options_rep3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Quality</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -519,6 +524,7 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -554,6 +560,7 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -589,6 +596,7 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -624,6 +632,7 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -659,6 +668,7 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -694,6 +704,7 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -729,6 +740,7 @@
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -764,6 +776,7 @@
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -799,6 +812,7 @@
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,6 +848,7 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -869,6 +884,7 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -904,6 +920,7 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -939,6 +956,7 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -974,6 +992,7 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1009,6 +1028,7 @@
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1044,6 +1064,7 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1079,6 +1100,7 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1114,6 +1136,7 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1149,6 +1172,7 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1184,6 +1208,7 @@
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1219,6 +1244,7 @@
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1250,6 +1276,7 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1281,6 +1308,7 @@
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1316,6 +1344,7 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1351,6 +1380,7 @@
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1384,6 +1414,7 @@
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1419,6 +1450,7 @@
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1454,6 +1486,7 @@
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1489,6 +1522,7 @@
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1524,6 +1558,7 @@
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1559,6 +1594,7 @@
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,6 +1628,7 @@
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1623,6 +1660,7 @@
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1658,6 +1696,7 @@
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1693,6 +1732,7 @@
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1728,6 +1768,7 @@
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1761,6 +1802,7 @@
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1796,6 +1838,7 @@
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1829,6 +1872,7 @@
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1864,6 +1908,7 @@
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1899,6 +1944,7 @@
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,6 +1980,7 @@
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1965,6 +2012,7 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2000,6 +2048,7 @@
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2035,6 +2084,7 @@
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2068,6 +2118,7 @@
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2099,6 +2150,7 @@
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2132,6 +2184,7 @@
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2167,6 +2220,7 @@
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2202,6 +2256,7 @@
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2237,6 +2292,7 @@
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2272,6 +2328,7 @@
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2307,6 +2364,7 @@
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2342,6 +2400,7 @@
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2377,6 +2436,7 @@
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2412,6 +2472,7 @@
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2445,6 +2506,7 @@
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2480,6 +2542,7 @@
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2515,6 +2578,7 @@
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2550,6 +2614,7 @@
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2585,6 +2650,7 @@
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2620,6 +2686,7 @@
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2655,6 +2722,7 @@
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2690,6 +2758,7 @@
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2725,6 +2794,7 @@
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2760,6 +2830,7 @@
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2795,6 +2866,7 @@
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2830,6 +2902,7 @@
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2865,6 +2938,7 @@
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2900,6 +2974,7 @@
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2933,6 +3008,7 @@
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2968,6 +3044,7 @@
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3003,6 +3080,7 @@
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3038,6 +3116,7 @@
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3071,6 +3150,7 @@
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3106,6 +3186,7 @@
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3141,6 +3222,7 @@
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3176,6 +3258,7 @@
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3209,6 +3292,7 @@
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3244,6 +3328,7 @@
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3279,6 +3364,7 @@
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3312,6 +3398,7 @@
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3345,6 +3432,7 @@
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3376,6 +3464,7 @@
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3407,6 +3496,7 @@
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3442,6 +3532,7 @@
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3475,6 +3566,7 @@
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3510,6 +3602,7 @@
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3545,6 +3638,7 @@
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3580,6 +3674,7 @@
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3615,6 +3710,7 @@
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3650,6 +3746,7 @@
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3685,6 +3782,7 @@
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3720,6 +3818,7 @@
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3755,6 +3854,7 @@
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3790,6 +3890,7 @@
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3823,6 +3924,7 @@
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3858,6 +3960,7 @@
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3893,6 +3996,7 @@
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3928,6 +4032,7 @@
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3963,6 +4068,7 @@
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3998,6 +4104,7 @@
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4033,6 +4140,7 @@
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4068,6 +4176,7 @@
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4103,6 +4212,7 @@
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4138,6 +4248,7 @@
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4173,6 +4284,7 @@
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4208,6 +4320,7 @@
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4243,6 +4356,7 @@
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4278,6 +4392,7 @@
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4313,6 +4428,7 @@
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4348,6 +4464,7 @@
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4383,6 +4500,7 @@
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4418,6 +4536,7 @@
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4453,6 +4572,7 @@
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4488,6 +4608,7 @@
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4523,6 +4644,7 @@
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4558,6 +4680,7 @@
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4593,6 +4716,7 @@
         </is>
       </c>
       <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4628,6 +4752,7 @@
         </is>
       </c>
       <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4663,6 +4788,7 @@
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4698,6 +4824,7 @@
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4731,6 +4858,7 @@
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4766,6 +4894,7 @@
         </is>
       </c>
       <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4801,6 +4930,7 @@
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4836,6 +4966,7 @@
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4871,6 +5002,7 @@
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4906,6 +5038,7 @@
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4941,6 +5074,7 @@
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4976,6 +5110,7 @@
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5011,6 +5146,7 @@
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5046,6 +5182,7 @@
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5081,6 +5218,7 @@
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5116,6 +5254,7 @@
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5151,6 +5290,7 @@
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5186,6 +5326,7 @@
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5221,6 +5362,7 @@
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5256,6 +5398,7 @@
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5291,6 +5434,7 @@
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5326,6 +5470,7 @@
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5361,6 +5506,7 @@
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5396,6 +5542,7 @@
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5431,6 +5578,7 @@
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5466,6 +5614,7 @@
         </is>
       </c>
       <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5501,6 +5650,7 @@
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5536,6 +5686,7 @@
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5571,6 +5722,7 @@
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5606,6 +5758,7 @@
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5641,6 +5794,7 @@
         </is>
       </c>
       <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5676,6 +5830,7 @@
         </is>
       </c>
       <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5711,6 +5866,7 @@
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5746,6 +5902,7 @@
         </is>
       </c>
       <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5781,6 +5938,7 @@
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5816,6 +5974,7 @@
         </is>
       </c>
       <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5851,6 +6010,7 @@
         </is>
       </c>
       <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5886,6 +6046,7 @@
         </is>
       </c>
       <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5921,6 +6082,7 @@
         </is>
       </c>
       <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5954,6 +6116,7 @@
         </is>
       </c>
       <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5989,6 +6152,7 @@
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6024,6 +6188,7 @@
         </is>
       </c>
       <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6059,6 +6224,7 @@
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6090,6 +6256,7 @@
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6119,6 +6286,7 @@
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6154,6 +6322,7 @@
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6189,6 +6358,7 @@
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6220,6 +6390,7 @@
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6255,6 +6426,7 @@
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6290,6 +6462,7 @@
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6325,6 +6498,7 @@
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6360,6 +6534,7 @@
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6395,6 +6570,7 @@
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6428,6 +6604,7 @@
         </is>
       </c>
       <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6463,6 +6640,7 @@
         </is>
       </c>
       <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6498,6 +6676,7 @@
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6533,6 +6712,7 @@
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6568,6 +6748,7 @@
         </is>
       </c>
       <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6603,6 +6784,7 @@
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6638,6 +6820,7 @@
         </is>
       </c>
       <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6673,6 +6856,7 @@
         </is>
       </c>
       <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6708,6 +6892,7 @@
         </is>
       </c>
       <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6743,6 +6928,7 @@
         </is>
       </c>
       <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6774,6 +6960,7 @@
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6807,6 +6994,7 @@
         </is>
       </c>
       <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6838,6 +7026,7 @@
         </is>
       </c>
       <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6873,6 +7062,7 @@
         </is>
       </c>
       <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6906,6 +7096,7 @@
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6939,6 +7130,7 @@
         </is>
       </c>
       <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6972,6 +7164,7 @@
         </is>
       </c>
       <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7005,6 +7198,7 @@
         </is>
       </c>
       <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7038,6 +7232,7 @@
         </is>
       </c>
       <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7071,6 +7266,7 @@
         </is>
       </c>
       <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
